--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1777779.065378263</v>
+        <v>1756054.087943039</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4181370.788344814</v>
+        <v>4181370.788344817</v>
       </c>
     </row>
     <row r="9">
@@ -1150,10 +1150,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,43 +1232,43 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>6.876045741711437</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.9601371840603</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>263.3429757223593</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>67.78595143231489</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,13 +1587,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>177.4507143278944</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.88571179025759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -1666,13 +1666,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>171.545310934632</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.2241192381673</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>38.81758817917231</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>79.03187764303514</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>292.2938138909335</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>36.02766158664616</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.3740563273</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>96.51881667305288</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>184.1477353216912</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>52.23490948285976</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>184.1477353216911</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>321.426743472871</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.02146927219756</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>29.38892166358619</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>287.8938041265583</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>43.11867444754203</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2766,19 +2766,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>115.9418712384135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>255.4387978730001</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>37.28707743115451</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>102.8228810500188</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>74.5703325417651</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.43157151396909</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>19.17475975089123</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>144.2201402657068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>96.50675189249574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>188.6059442291534</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>54.35958206012953</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>147.0633545968143</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3562,13 +3562,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>149.1669135220474</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>29.76498982117685</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>80.71262740536871</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.5705851936311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>80.05671066664384</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>120.4263234899699</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>25.97544109408665</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>33.38304376058925</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>10.20389322926702</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.80399951402445</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="9">
@@ -4871,34 +4871,34 @@
         <v>7.495584408540386</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K9" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M9" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N9" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O9" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4907,13 +4907,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U9" t="n">
         <v>14.44108515774386</v>
@@ -4953,13 +4953,13 @@
         <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4992,19 +4992,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T10" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W10" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X10" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y10" t="n">
         <v>7.495584408540386</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1930.094988518961</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1561.13247157855</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.866772971799</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5038,16 +5038,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339056</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X11" t="n">
-        <v>2706.834160558895</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y11" t="n">
-        <v>2316.694828583083</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>845.4915543310553</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C13" t="n">
-        <v>676.5553714031485</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>526.4387319908127</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E13" t="n">
-        <v>378.5256384084196</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4915543310553</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X13" t="n">
-        <v>845.4915543310553</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y13" t="n">
-        <v>845.4915543310553</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1647.321240915451</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
         <v>66.51211643218342</v>
@@ -5278,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3257.034395558405</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3051.056647942627</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2797.526171216464</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2797.526171216464</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2797.526171216464</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.060412955384</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.921080979572</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5381,28 +5381,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.8106393615039</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C16" t="n">
-        <v>627.8744564335971</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1888.084863059025</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1888.084863059025</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1666.318247628551</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1377.215380754195</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.610059882605</v>
+        <v>1122.530892548308</v>
       </c>
       <c r="W16" t="n">
-        <v>1383.192889845645</v>
+        <v>833.1137225113476</v>
       </c>
       <c r="X16" t="n">
-        <v>1155.203338947627</v>
+        <v>605.1241716133303</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.4107598040972</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.511388127729</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.548871187317</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3135.484973698856</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3135.484973698856</v>
+        <v>2776.829068225498</v>
       </c>
       <c r="W17" t="n">
-        <v>2782.716318428742</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="X17" t="n">
-        <v>2409.250560167662</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.11122819185</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X19" t="n">
-        <v>1188.435514885645</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038043</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C20" t="n">
-        <v>1822.632236038043</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D20" t="n">
-        <v>1464.366537431292</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E20" t="n">
-        <v>1078.578284833048</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>667.5923800434407</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>252.5199298884372</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102165</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1761.12878874783</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>1761.12878874783</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>1761.12878874783</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>1761.12878874783</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>1761.12878874783</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1761.12878874783</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2212.771568013855</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C23" t="n">
-        <v>1843.809051073444</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1485.543352466693</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1099.755099868449</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>688.7691950788414</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6028,13 +6028,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339057</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077977</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y23" t="n">
-        <v>2599.371408077977</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1869.697104379202</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1678.011220206029</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1456.244604775555</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>1167.141737901198</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088493</v>
+        <v>912.4572496953115</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>623.0400796583508</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>395.0505287603335</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1892.184635123826</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.222118183415</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.956419576664</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6256,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3295.920042151003</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>3042.389565424839</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V26" t="n">
-        <v>3042.389565424839</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W26" t="n">
-        <v>3042.389565424839</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X26" t="n">
-        <v>2668.92380716376</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y26" t="n">
-        <v>2278.784475187948</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F28" t="n">
         <v>380.4321398396066</v>
@@ -6414,22 +6414,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V28" t="n">
-        <v>1513.842048484845</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W28" t="n">
-        <v>1513.842048484845</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.729047233923</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.936468090393</v>
+        <v>743.0391787935281</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1628.178203944121</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C29" t="n">
-        <v>1259.215687003709</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D29" t="n">
-        <v>900.949988396959</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="E29" t="n">
-        <v>515.1617357987147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>104.1758310091072</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>104.1758310091072</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>104.1758310091072</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6478,7 +6478,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008243</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y29" t="n">
-        <v>2014.778044008243</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.3097953702104</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C31" t="n">
-        <v>170.3736124423035</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D31" t="n">
-        <v>170.3736124423035</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218343</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1851.970979864488</v>
       </c>
       <c r="U31" t="n">
-        <v>1513.842048484845</v>
+        <v>1851.970979864488</v>
       </c>
       <c r="V31" t="n">
-        <v>1259.157560278958</v>
+        <v>1597.286491658601</v>
       </c>
       <c r="W31" t="n">
-        <v>969.7403902419976</v>
+        <v>1307.86932162164</v>
       </c>
       <c r="X31" t="n">
-        <v>741.7508393439803</v>
+        <v>1079.879770723623</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.9582602004501</v>
+        <v>859.0871915800925</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1888.09808975843</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C32" t="n">
-        <v>1519.135572818019</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.869874211268</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>775.0816216130238</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3254.46282007991</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3254.46282007991</v>
+        <v>3306.237377416351</v>
       </c>
       <c r="U32" t="n">
-        <v>3000.932343353746</v>
+        <v>3052.706900690187</v>
       </c>
       <c r="V32" t="n">
-        <v>3000.932343353746</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="W32" t="n">
-        <v>2648.163688083632</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="X32" t="n">
-        <v>2274.697929822552</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y32" t="n">
-        <v>2274.697929822552</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962486</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034579</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622243</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.95903803985</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.06909054194</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916659</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>1589.931754556019</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>1300.828887681663</v>
       </c>
       <c r="V34" t="n">
-        <v>3228.124254040994</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="W34" t="n">
-        <v>2938.707084004033</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="X34" t="n">
-        <v>2710.717533106016</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="Y34" t="n">
-        <v>2489.924953962486</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2196.097994299123</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1827.135477358712</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>1468.869778751961</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>1083.081526153717</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>672.0956213641095</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>257.023171209106</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X35" t="n">
-        <v>2972.837166339057</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y35" t="n">
-        <v>2582.697834363245</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1565.219016943946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C38" t="n">
-        <v>1565.219016943946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D38" t="n">
-        <v>1206.953318337195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
         <v>821.1650657389509</v>
@@ -7174,10 +7174,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2715.423947244959</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X38" t="n">
-        <v>2341.958188983879</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y38" t="n">
-        <v>1951.818857008067</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="39">
@@ -7356,25 +7356,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1755.936184375951</v>
       </c>
       <c r="V40" t="n">
-        <v>1638.191681214136</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="W40" t="n">
-        <v>1638.191681214136</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X40" t="n">
-        <v>1410.202130316119</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y40" t="n">
         <v>1273.262145272047</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1285.591601078694</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>916.6290841382827</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>558.3633855315322</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>558.3633855315322</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>147.3774807419247</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>147.3774807419247</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.565186649822</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.796531379708</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2062.330773118628</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1672.191441142816</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1615.697475415547</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1615.697475415547</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.697475415547</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1616.654488422265</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C44" t="n">
-        <v>1590.416669135309</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.150970528558</v>
+        <v>1354.075868958387</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>968.2876163601431</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>557.3017115705356</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>142.2292614155321</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7648,10 +7648,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>2766.859418723278</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X44" t="n">
-        <v>2393.393660462199</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y44" t="n">
-        <v>2003.254328486387</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.2880032601528</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3518203322459</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>371.6221203703324</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>223.7090267879393</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7836,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>1094.090022971289</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y46" t="n">
-        <v>994.2880032601528</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
   </sheetData>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>87.75711748056034</v>
+        <v>94.35534319230364</v>
       </c>
       <c r="K8" t="n">
         <v>80.27414188615768</v>
@@ -8464,16 +8464,16 @@
         <v>44.22156050876461</v>
       </c>
       <c r="N8" t="n">
-        <v>39.88761744738939</v>
+        <v>33.28939173564609</v>
       </c>
       <c r="O8" t="n">
-        <v>44.90418949596821</v>
+        <v>51.78023523767965</v>
       </c>
       <c r="P8" t="n">
         <v>80.05022839850571</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.4861494999904</v>
+        <v>103.6101037582789</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>71.27546419416532</v>
+        <v>78.15150993587676</v>
       </c>
       <c r="K9" t="n">
-        <v>49.75289923953348</v>
+        <v>42.87685349782204</v>
       </c>
       <c r="L9" t="n">
-        <v>10.86277524892485</v>
+        <v>17.46100096066814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>2.673277653404995</v>
       </c>
       <c r="P9" t="n">
-        <v>28.27211644960708</v>
+        <v>21.67389073786379</v>
       </c>
       <c r="Q9" t="n">
         <v>64.91185269891416</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>100.0350347748417</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>106.3881249561097</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>77.63509659061636</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>48.25894106114274</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.30204999791826</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>198.185789743837</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.60786094376996</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>50.11456449087503</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>171.9632943158668</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>35.4584445792014</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>131.2191595119817</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.2105970247948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>268.7540750979547</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>110.4600290656292</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7908987761685</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>181.1251564493164</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.49498218058244</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>31.91068339784977</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>174.5290484760339</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>39.85845434357657</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>136.7133057343953</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>109.7677841506237</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>126.4915721992617</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.289852341771436</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>43.61108159655033</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>144.9786167344041</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.75619027420674</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>184.7432103887289</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>75.32880901046244</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6308914313323</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>106.0018201581671</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>294.8813866572835</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>20.18346650181351</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>200.0740551953656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>339.9661108572922</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,10 +25605,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>205.4992108002442</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.01406815846369</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>214.5510537206766</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>105.2833318990672</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>339.2974506769209</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>261.2247206267312</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.7806538380703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725243.0673141181</v>
+        <v>725243.0673141183</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725243.0673141184</v>
+        <v>725243.0673141183</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725243.0673141184</v>
+        <v>725243.0673141183</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725243.0673141184</v>
+        <v>725243.0673141183</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725243.0673141184</v>
+        <v>725243.0673141183</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725243.0673141185</v>
+        <v>725243.0673141184</v>
       </c>
     </row>
     <row r="16">
@@ -26319,40 +26319,40 @@
         <v>573546.0278304667</v>
       </c>
       <c r="D2" t="n">
-        <v>574320.9481491899</v>
+        <v>574320.9481491901</v>
       </c>
       <c r="E2" t="n">
-        <v>477395.9385592889</v>
+        <v>477395.9385592887</v>
       </c>
       <c r="F2" t="n">
         <v>477395.9385592889</v>
       </c>
       <c r="G2" t="n">
-        <v>477395.938559289</v>
+        <v>477395.9385592887</v>
       </c>
       <c r="H2" t="n">
-        <v>477395.938559289</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="I2" t="n">
-        <v>477395.9385592891</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="J2" t="n">
         <v>477395.938559289</v>
       </c>
       <c r="K2" t="n">
+        <v>477395.9385592891</v>
+      </c>
+      <c r="L2" t="n">
+        <v>477395.9385592888</v>
+      </c>
+      <c r="M2" t="n">
+        <v>477395.9385592888</v>
+      </c>
+      <c r="N2" t="n">
         <v>477395.938559289</v>
       </c>
-      <c r="L2" t="n">
-        <v>477395.938559289</v>
-      </c>
-      <c r="M2" t="n">
-        <v>477395.938559289</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>477395.9385592889</v>
-      </c>
-      <c r="O2" t="n">
-        <v>477395.9385592888</v>
       </c>
       <c r="P2" t="n">
         <v>477395.9385592889</v>
@@ -26374,7 +26374,7 @@
         <v>35221.70711368781</v>
       </c>
       <c r="E3" t="n">
-        <v>902054.2017797716</v>
+        <v>902054.2017797715</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.265292815489</v>
+        <v>1740.265292815432</v>
       </c>
       <c r="M3" t="n">
-        <v>205475.0301890555</v>
+        <v>205475.0301890554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>9770.40310209149</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.40310209149</v>
+        <v>9770.403102091494</v>
       </c>
       <c r="G4" t="n">
         <v>9770.403102091475</v>
@@ -26478,7 +26478,7 @@
         <v>40006.06676764524</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28102.29518341128</v>
+        <v>-28144.89213904325</v>
       </c>
       <c r="C6" t="n">
-        <v>127978.866385458</v>
+        <v>127936.6088470819</v>
       </c>
       <c r="D6" t="n">
-        <v>140132.0590279225</v>
+        <v>140117.4772152152</v>
       </c>
       <c r="E6" t="n">
-        <v>-508735.0068839675</v>
+        <v>-512211.1961820286</v>
       </c>
       <c r="F6" t="n">
-        <v>393319.1948958041</v>
+        <v>389843.005597743</v>
       </c>
       <c r="G6" t="n">
-        <v>393319.194895804</v>
+        <v>389843.0055977427</v>
       </c>
       <c r="H6" t="n">
-        <v>393319.1948958042</v>
+        <v>389843.0055977431</v>
       </c>
       <c r="I6" t="n">
-        <v>393319.1948958043</v>
+        <v>389843.005597743</v>
       </c>
       <c r="J6" t="n">
-        <v>393319.1948958042</v>
+        <v>389843.0055977431</v>
       </c>
       <c r="K6" t="n">
-        <v>393319.1948958042</v>
+        <v>389843.0055977433</v>
       </c>
       <c r="L6" t="n">
-        <v>391578.9296029888</v>
+        <v>388102.7403049275</v>
       </c>
       <c r="M6" t="n">
-        <v>187844.1647067489</v>
+        <v>184367.9754086876</v>
       </c>
       <c r="N6" t="n">
-        <v>393319.1948958042</v>
+        <v>389843.0055977431</v>
       </c>
       <c r="O6" t="n">
-        <v>393319.194895804</v>
+        <v>389843.0055977431</v>
       </c>
       <c r="P6" t="n">
-        <v>393319.1948958042</v>
+        <v>389843.005597743</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26810,19 +26810,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -27020,7 +27020,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.5254096605811</v>
+        <v>824.5254096605809</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711209</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605811</v>
+        <v>824.525409660581</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605811</v>
+        <v>824.5254096605809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>328.2181557399898</v>
+        <v>321.3421099982783</v>
       </c>
       <c r="I8" t="n">
-        <v>168.1009978919332</v>
+        <v>162.0445768026338</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>73.94873553131401</v>
+        <v>80.82478127302545</v>
       </c>
       <c r="S8" t="n">
         <v>183.9732413877317</v>
@@ -27909,7 +27909,7 @@
         <v>218.2843305103083</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2013000025906</v>
+        <v>251.25772109189</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
         <v>136.7554212974788</v>
@@ -27952,7 +27952,7 @@
         <v>106.555676270086</v>
       </c>
       <c r="I9" t="n">
-        <v>62.27254962726849</v>
+        <v>69.14859536897993</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.76825737891232</v>
+        <v>63.64430312062375</v>
       </c>
       <c r="S9" t="n">
-        <v>154.7031272453521</v>
+        <v>160.7595483346515</v>
       </c>
       <c r="T9" t="n">
-        <v>197.794289657069</v>
+        <v>191.7378685677696</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9026915634925</v>
+        <v>219.026645821781</v>
       </c>
       <c r="V9" t="n">
         <v>225.9245414077138</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>160.6218937983382</v>
+        <v>167.4979395400497</v>
       </c>
       <c r="H10" t="n">
         <v>157.843600303766</v>
@@ -28034,7 +28034,7 @@
         <v>140.6234229336467</v>
       </c>
       <c r="J10" t="n">
-        <v>58.50126495514995</v>
+        <v>51.62521921343851</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>215.424258656152</v>
       </c>
       <c r="T10" t="n">
-        <v>219.782543660325</v>
+        <v>225.8389647496245</v>
       </c>
       <c r="U10" t="n">
         <v>286.2921362754868</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>212.5282322627954</v>
       </c>
     </row>
     <row r="11">
@@ -32791,13 +32791,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33897,7 +33897,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L38" t="n">
         <v>691.3565293623194</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34368,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,16 +35184,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36369,7 +36369,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36439,13 +36439,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38025,7 +38025,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
